--- a/data/trans_orig/P43B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54ED6236-6799-45BC-A846-8EB1B6A9A479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD869DCB-4F1D-4ABC-AA27-6A3F4CF73E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4806962A-E5A3-47E6-ADD4-51DFC7C11851}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27B65B47-CB37-4A90-A804-D454ADE1C5E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -85,19 +85,19 @@
     <t>13,42%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>16,09%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>14,36%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,31 +214,37 @@
     <t>17,21%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>87,6%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -250,163 +256,157 @@
     <t>18,24%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>91,26%</t>
+    <t>89,93%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -415,163 +415,163 @@
     <t>15,97%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>78,73%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>90,62%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597553F2-F7DF-4613-8D88-847B4F2FC6F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358F6B9C-EADA-47BF-A2E3-CE4070263564}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2306,7 +2306,7 @@
         <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -2321,7 +2321,7 @@
         <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2349,13 @@
         <v>1401577</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>1290</v>
@@ -2364,13 +2364,13 @@
         <v>1401577</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA93E5FE-DA15-4A81-966D-C5412B2E0FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E0CF5D-139F-48AC-A4F0-350280848930}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2465,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,13 +2585,13 @@
         <v>25719</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2600,13 +2600,13 @@
         <v>25719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2634,13 @@
         <v>115307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -2649,13 +2649,13 @@
         <v>115307</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2734,13 @@
         <v>19579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2749,13 +2749,13 @@
         <v>19579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>236187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -2798,13 +2798,13 @@
         <v>236187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>13720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2898,13 +2898,13 @@
         <v>13720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2932,13 @@
         <v>167987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>161</v>
@@ -2947,13 +2947,13 @@
         <v>167987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3032,13 @@
         <v>23368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3047,13 +3047,13 @@
         <v>23368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3081,13 @@
         <v>178658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -3096,13 +3096,13 @@
         <v>178658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3181,13 @@
         <v>9451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3196,13 +3196,13 @@
         <v>9451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,10 +3230,10 @@
         <v>98665</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>98</v>
@@ -3245,10 +3245,10 @@
         <v>98665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>98</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7C049-C13E-4BAC-89B5-5A66F770EB60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F95E486-B528-470B-880F-5E056FC6F74E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5378,7 +5378,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD869DCB-4F1D-4ABC-AA27-6A3F4CF73E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EE22D0-3C6D-4352-A130-054012AAE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27B65B47-CB37-4A90-A804-D454ADE1C5E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AA0AB72-2F56-4037-8751-DD0D0BB32915}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="180">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>13,42%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>16,09%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -175,13 +175,13 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>14,45%</t>
+    <t>13,06%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>85,55%</t>
+    <t>86,94%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -193,19 +193,19 @@
     <t>14,36%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,199 +214,205 @@
     <t>17,21%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha mamografía en 2015 (Tasa respuesta: 23,37%)</t>
+    <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>95,38%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -983,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358F6B9C-EADA-47BF-A2E3-CE4070263564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD87D02D-37F6-4A5C-ACC5-6BB44EC8A5B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2448,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E0CF5D-139F-48AC-A4F0-350280848930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614DE3F-C7C8-4FDA-BF12-632C408B0EA5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,7 +3193,7 @@
         <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3202,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>98665</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3245,13 +3251,13 @@
         <v>98665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3336,13 @@
         <v>13522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3345,13 +3351,13 @@
         <v>13522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3385,13 @@
         <v>120734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3394,13 +3400,13 @@
         <v>120734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3485,13 @@
         <v>43060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3494,13 +3500,13 @@
         <v>43060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3534,13 @@
         <v>242469</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>214</v>
@@ -3543,13 +3549,13 @@
         <v>242469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3634,13 @@
         <v>61011</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3643,13 +3649,13 @@
         <v>61011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3683,13 @@
         <v>321572</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>281</v>
@@ -3692,13 +3698,13 @@
         <v>321572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3783,13 @@
         <v>209428</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -3792,13 +3798,13 @@
         <v>209428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3832,13 @@
         <v>1481582</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>1345</v>
@@ -3841,13 +3847,13 @@
         <v>1481582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F95E486-B528-470B-880F-5E056FC6F74E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA3A8EA-6EB0-4299-A8EC-72A95089EB5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4068,13 @@
         <v>17906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -4077,13 +4083,13 @@
         <v>17906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4117,13 @@
         <v>94233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>202</v>
@@ -4126,13 +4132,13 @@
         <v>94233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>35066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -4226,13 +4232,13 @@
         <v>35066</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4266,13 @@
         <v>204123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>288</v>
@@ -4275,13 +4281,13 @@
         <v>204123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4366,13 @@
         <v>13975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4375,13 +4381,13 @@
         <v>13975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4415,13 @@
         <v>132037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
@@ -4424,13 +4430,13 @@
         <v>132037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4515,13 @@
         <v>36179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -4524,13 +4530,13 @@
         <v>36179</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4564,13 @@
         <v>133879</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>240</v>
@@ -4573,13 +4579,13 @@
         <v>133879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4664,13 @@
         <v>15606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4673,13 +4679,13 @@
         <v>15606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4713,13 @@
         <v>106609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -4722,13 +4728,13 @@
         <v>106609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4813,13 @@
         <v>11243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4822,13 +4828,13 @@
         <v>11243</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4862,13 @@
         <v>108637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>221</v>
@@ -4871,13 +4877,13 @@
         <v>108637</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4962,13 @@
         <v>105728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -4971,13 +4977,13 @@
         <v>105728</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5011,13 @@
         <v>305970</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
@@ -5020,13 +5026,13 @@
         <v>305970</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5111,13 @@
         <v>29914</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -5120,13 +5126,13 @@
         <v>29914</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5160,13 @@
         <v>230731</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>329</v>
@@ -5169,13 +5175,13 @@
         <v>230731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5260,13 @@
         <v>265616</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -5269,13 +5275,13 @@
         <v>265616</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5309,13 @@
         <v>1316220</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>2061</v>
@@ -5318,13 +5324,13 @@
         <v>1316220</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EE22D0-3C6D-4352-A130-054012AAE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3603590-5EDB-42A6-B6CC-886B04B00A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AA0AB72-2F56-4037-8751-DD0D0BB32915}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCA8FF98-959A-4459-B1F7-2E3BD5BA8496}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>13,42%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,475 +109,469 @@
     <t>15,41%</t>
   </si>
   <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>87,62%</t>
+    <t>90,62%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>94,15%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
 </sst>
 </file>
@@ -989,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD87D02D-37F6-4A5C-ACC5-6BB44EC8A5B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521EF0C-5671-42A7-80FC-2F2EE17FD851}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2312,7 +2306,7 @@
         <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -2327,7 +2321,7 @@
         <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2349,13 @@
         <v>1401577</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>1290</v>
@@ -2370,13 +2364,13 @@
         <v>1401577</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2424,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614DE3F-C7C8-4FDA-BF12-632C408B0EA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E110113-A0E0-4BF7-B26C-7D01FFA90909}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2471,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2591,13 +2585,13 @@
         <v>25719</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2606,13 +2600,13 @@
         <v>25719</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2634,13 @@
         <v>115307</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -2655,13 +2649,13 @@
         <v>115307</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2734,13 @@
         <v>19579</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2755,13 +2749,13 @@
         <v>19579</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2783,13 @@
         <v>236187</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -2804,13 +2798,13 @@
         <v>236187</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2883,13 @@
         <v>13720</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2904,13 +2898,13 @@
         <v>13720</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2932,13 @@
         <v>167987</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>161</v>
@@ -2953,13 +2947,13 @@
         <v>167987</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3032,13 @@
         <v>23368</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3053,13 +3047,13 @@
         <v>23368</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3081,13 @@
         <v>178658</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -3102,13 +3096,13 @@
         <v>178658</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3181,13 @@
         <v>9451</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3202,13 +3196,13 @@
         <v>9451</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3230,13 @@
         <v>98665</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3251,13 +3245,13 @@
         <v>98665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3330,13 @@
         <v>13522</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3351,13 +3345,13 @@
         <v>13522</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3379,13 @@
         <v>120734</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3400,13 +3394,13 @@
         <v>120734</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3479,13 @@
         <v>43060</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3500,13 +3494,13 @@
         <v>43060</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3528,13 @@
         <v>242469</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>214</v>
@@ -3549,13 +3543,13 @@
         <v>242469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3628,13 @@
         <v>61011</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3649,13 +3643,13 @@
         <v>61011</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3677,13 @@
         <v>321572</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>281</v>
@@ -3698,13 +3692,13 @@
         <v>321572</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3777,13 @@
         <v>209428</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -3798,13 +3792,13 @@
         <v>209428</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>1481582</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>1345</v>
@@ -3847,13 +3841,13 @@
         <v>1481582</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +3901,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA3A8EA-6EB0-4299-A8EC-72A95089EB5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D37E600-13AE-48AA-9A52-3751A41AC16F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3948,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4068,13 +4062,13 @@
         <v>17906</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -4083,13 +4077,13 @@
         <v>17906</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4111,13 @@
         <v>94233</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>202</v>
@@ -4132,13 +4126,13 @@
         <v>94233</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4211,13 @@
         <v>35066</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -4232,13 +4226,13 @@
         <v>35066</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4260,13 @@
         <v>204123</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>288</v>
@@ -4281,13 +4275,13 @@
         <v>204123</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>13975</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4381,13 +4375,13 @@
         <v>13975</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4409,13 @@
         <v>132037</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
@@ -4430,13 +4424,13 @@
         <v>132037</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4509,13 @@
         <v>36179</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -4530,13 +4524,13 @@
         <v>36179</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4558,13 @@
         <v>133879</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>240</v>
@@ -4579,13 +4573,13 @@
         <v>133879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4658,13 @@
         <v>15606</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4679,13 +4673,13 @@
         <v>15606</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4707,13 @@
         <v>106609</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -4728,13 +4722,13 @@
         <v>106609</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4807,13 @@
         <v>11243</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4828,13 +4822,13 @@
         <v>11243</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4856,13 @@
         <v>108637</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>221</v>
@@ -4877,13 +4871,13 @@
         <v>108637</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4956,13 @@
         <v>105728</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -4977,13 +4971,13 @@
         <v>105728</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5005,13 @@
         <v>305970</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
@@ -5026,13 +5020,13 @@
         <v>305970</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5105,13 @@
         <v>29914</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -5126,13 +5120,13 @@
         <v>29914</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5154,13 @@
         <v>230731</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>329</v>
@@ -5175,13 +5169,13 @@
         <v>230731</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5254,13 @@
         <v>265616</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -5275,13 +5269,13 @@
         <v>265616</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5303,13 @@
         <v>1316220</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>2061</v>
@@ -5324,13 +5318,13 @@
         <v>1316220</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5378,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3603590-5EDB-42A6-B6CC-886B04B00A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC86F236-B192-4C44-BCE5-A67375402904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCA8FF98-959A-4459-B1F7-2E3BD5BA8496}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF857699-D443-48DD-B65C-F491D46204BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="186">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -76,9 +76,30 @@
     <t>—%</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -100,9 +121,6 @@
     <t>90,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -127,117 +145,123 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>85,69%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
     <t>87,6%</t>
   </si>
   <si>
@@ -412,37 +436,37 @@
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>89,08%</t>
@@ -451,37 +475,37 @@
     <t>9,57%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>12,77%</t>
@@ -490,88 +514,88 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>17,23%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>82,75%</t>
+    <t>82,77%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521EF0C-5671-42A7-80FC-2F2EE17FD851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC540D2-4F5E-47D2-A5EB-7CBB1B4210F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1114,36 +1138,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15109</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15109</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1159,30 +1187,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I5" s="7">
+        <v>128388</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="N5" s="7">
+        <v>128388</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,35 +1236,39 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="I6" s="7">
+        <v>143497</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="N6" s="7">
+        <v>143497</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1257,13 +1293,13 @@
         <v>28458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -1272,19 +1308,19 @@
         <v>28458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1306,13 +1342,13 @@
         <v>183523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>167</v>
@@ -1321,13 +1357,13 @@
         <v>183523</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1391,13 @@
         <v>211981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>190</v>
@@ -1370,18 +1406,18 @@
         <v>211981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1406,13 +1442,13 @@
         <v>23531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1421,19 +1457,19 @@
         <v>23531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1455,13 +1491,13 @@
         <v>129163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -1470,13 +1506,13 @@
         <v>129163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1540,13 @@
         <v>152694</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -1519,18 +1555,18 @@
         <v>152694</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1549,40 +1585,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>53223</v>
+        <v>38114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>53223</v>
+        <v>38114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1598,34 +1634,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>277467</v>
+        <v>149078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="N14" s="7">
-        <v>277467</v>
+        <v>149078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,39 +1683,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="I15" s="7">
-        <v>330690</v>
+        <v>187192</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="N15" s="7">
-        <v>330690</v>
+        <v>187192</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1704,13 +1740,13 @@
         <v>9297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1719,19 +1755,19 @@
         <v>9297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1753,13 +1789,13 @@
         <v>94591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -1768,13 +1804,13 @@
         <v>94591</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1838,13 @@
         <v>103888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -1817,18 +1853,18 @@
         <v>103888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1853,13 +1889,13 @@
         <v>8708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -1868,19 +1904,19 @@
         <v>8708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1902,13 +1938,13 @@
         <v>126288</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -1917,13 +1953,13 @@
         <v>126288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,13 +1987,13 @@
         <v>134996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>130</v>
@@ -1966,18 +2002,18 @@
         <v>134996</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2002,13 +2038,13 @@
         <v>49771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -2017,19 +2053,19 @@
         <v>49771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2051,13 +2087,13 @@
         <v>296840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>267</v>
@@ -2066,13 +2102,13 @@
         <v>296840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2136,13 @@
         <v>346611</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>309</v>
@@ -2115,18 +2151,18 @@
         <v>346611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2187,13 @@
         <v>61047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -2166,19 +2202,19 @@
         <v>61047</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2200,13 +2236,13 @@
         <v>293706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -2215,13 +2251,13 @@
         <v>293706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2285,13 @@
         <v>354753</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>319</v>
@@ -2264,13 +2300,13 @@
         <v>354753</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2336,13 @@
         <v>234035</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -2315,19 +2351,19 @@
         <v>234035</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2346,31 +2382,31 @@
         <v>1290</v>
       </c>
       <c r="I29" s="7">
-        <v>1401577</v>
+        <v>1401576</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>1290</v>
       </c>
       <c r="N29" s="7">
-        <v>1401577</v>
+        <v>1401576</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,36 +2431,36 @@
         <v>1494</v>
       </c>
       <c r="I30" s="7">
-        <v>1635612</v>
+        <v>1635611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>1494</v>
       </c>
       <c r="N30" s="7">
-        <v>1635612</v>
+        <v>1635611</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E110113-A0E0-4BF7-B26C-7D01FFA90909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7504E1C0-EB23-486A-86CB-793C17EEA127}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2465,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,13 +2621,13 @@
         <v>25719</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2600,19 +2636,19 @@
         <v>25719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2634,13 +2670,13 @@
         <v>115307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -2649,13 +2685,13 @@
         <v>115307</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2719,13 @@
         <v>141026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>132</v>
@@ -2698,18 +2734,18 @@
         <v>141026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2734,13 +2770,13 @@
         <v>19579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2749,19 +2785,19 @@
         <v>19579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2783,13 +2819,13 @@
         <v>236187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -2798,13 +2834,13 @@
         <v>236187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2868,13 @@
         <v>255766</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -2847,18 +2883,18 @@
         <v>255766</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2883,13 +2919,13 @@
         <v>13720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2898,19 +2934,19 @@
         <v>13720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2932,13 +2968,13 @@
         <v>167987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>161</v>
@@ -2947,13 +2983,13 @@
         <v>167987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3017,13 @@
         <v>181707</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>174</v>
@@ -2996,18 +3032,18 @@
         <v>181707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3068,13 @@
         <v>23368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3047,19 +3083,19 @@
         <v>23368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3081,13 +3117,13 @@
         <v>178658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -3096,13 +3132,13 @@
         <v>178658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3166,13 @@
         <v>202026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>183</v>
@@ -3145,18 +3181,18 @@
         <v>202026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3181,13 +3217,13 @@
         <v>9451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3196,19 +3232,19 @@
         <v>9451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3230,13 +3266,13 @@
         <v>98665</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3245,13 +3281,13 @@
         <v>98665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3315,13 @@
         <v>108116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
@@ -3294,18 +3330,18 @@
         <v>108116</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3366,13 @@
         <v>13522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3345,19 +3381,19 @@
         <v>13522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3379,13 +3415,13 @@
         <v>120734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3394,13 +3430,13 @@
         <v>120734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3464,13 @@
         <v>134256</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
@@ -3443,18 +3479,18 @@
         <v>134256</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3479,13 +3515,13 @@
         <v>43060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3494,19 +3530,19 @@
         <v>43060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3528,13 +3564,13 @@
         <v>242469</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>214</v>
@@ -3543,13 +3579,13 @@
         <v>242469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3613,13 @@
         <v>285529</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>254</v>
@@ -3592,18 +3628,18 @@
         <v>285529</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3664,13 @@
         <v>61011</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3643,19 +3679,19 @@
         <v>61011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3677,13 +3713,13 @@
         <v>321572</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>281</v>
@@ -3692,13 +3728,13 @@
         <v>321572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3762,13 @@
         <v>382583</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>333</v>
@@ -3741,13 +3777,13 @@
         <v>382583</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3813,13 @@
         <v>209428</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -3792,19 +3828,19 @@
         <v>209428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3826,13 +3862,13 @@
         <v>1481582</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>1345</v>
@@ -3841,13 +3877,13 @@
         <v>1481582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3911,13 @@
         <v>1691010</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>1535</v>
@@ -3890,18 +3926,18 @@
         <v>1691010</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D37E600-13AE-48AA-9A52-3751A41AC16F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A75558-5080-41F8-A67F-A005ABF77346}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4059,37 +4095,37 @@
         <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>17906</v>
+        <v>18756</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>17906</v>
+        <v>18756</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4108,31 +4144,31 @@
         <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>94233</v>
+        <v>97336</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>202</v>
       </c>
       <c r="N5" s="7">
-        <v>94233</v>
+        <v>97336</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,36 +4193,36 @@
         <v>236</v>
       </c>
       <c r="I6" s="7">
-        <v>112139</v>
+        <v>116092</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>236</v>
       </c>
       <c r="N6" s="7">
-        <v>112139</v>
+        <v>116092</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4208,37 +4244,37 @@
         <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>35066</v>
+        <v>32497</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>35066</v>
+        <v>32497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4257,31 +4293,31 @@
         <v>288</v>
       </c>
       <c r="I8" s="7">
-        <v>204123</v>
+        <v>189401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>288</v>
       </c>
       <c r="N8" s="7">
-        <v>204123</v>
+        <v>189401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,36 +4342,36 @@
         <v>335</v>
       </c>
       <c r="I9" s="7">
-        <v>239189</v>
+        <v>221898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>335</v>
       </c>
       <c r="N9" s="7">
-        <v>239189</v>
+        <v>221898</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4357,37 +4393,37 @@
         <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>13975</v>
+        <v>12973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>13975</v>
+        <v>12973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4406,31 +4442,31 @@
         <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>132037</v>
+        <v>122654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
       </c>
       <c r="N11" s="7">
-        <v>132037</v>
+        <v>122654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,36 +4491,36 @@
         <v>241</v>
       </c>
       <c r="I12" s="7">
-        <v>146012</v>
+        <v>135627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>241</v>
       </c>
       <c r="N12" s="7">
-        <v>146012</v>
+        <v>135627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4506,37 +4542,37 @@
         <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>36179</v>
+        <v>33465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>36179</v>
+        <v>33465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4555,31 +4591,31 @@
         <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>133879</v>
+        <v>148774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>240</v>
       </c>
       <c r="N14" s="7">
-        <v>133879</v>
+        <v>148774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,36 +4640,36 @@
         <v>303</v>
       </c>
       <c r="I15" s="7">
-        <v>170058</v>
+        <v>182239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>303</v>
       </c>
       <c r="N15" s="7">
-        <v>170058</v>
+        <v>182239</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4655,37 +4691,37 @@
         <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>15606</v>
+        <v>14240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>15606</v>
+        <v>14240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4704,31 +4740,31 @@
         <v>258</v>
       </c>
       <c r="I17" s="7">
-        <v>106609</v>
+        <v>97305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
       </c>
       <c r="N17" s="7">
-        <v>106609</v>
+        <v>97305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,36 +4789,36 @@
         <v>292</v>
       </c>
       <c r="I18" s="7">
-        <v>122215</v>
+        <v>111545</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
       </c>
       <c r="N18" s="7">
-        <v>122215</v>
+        <v>111545</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4804,37 +4840,37 @@
         <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>11243</v>
+        <v>10399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>11243</v>
+        <v>10399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4853,31 +4889,31 @@
         <v>221</v>
       </c>
       <c r="I20" s="7">
-        <v>108637</v>
+        <v>101354</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>221</v>
       </c>
       <c r="N20" s="7">
-        <v>108637</v>
+        <v>101354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,36 +4938,36 @@
         <v>241</v>
       </c>
       <c r="I21" s="7">
-        <v>119880</v>
+        <v>111753</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>241</v>
       </c>
       <c r="N21" s="7">
-        <v>119880</v>
+        <v>111753</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4953,37 +4989,37 @@
         <v>148</v>
       </c>
       <c r="I22" s="7">
-        <v>105728</v>
+        <v>98776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
       </c>
       <c r="N22" s="7">
-        <v>105728</v>
+        <v>98776</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5002,31 +5038,31 @@
         <v>302</v>
       </c>
       <c r="I23" s="7">
-        <v>305970</v>
+        <v>386146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>305970</v>
+        <v>386146</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,36 +5087,36 @@
         <v>450</v>
       </c>
       <c r="I24" s="7">
-        <v>411698</v>
+        <v>484922</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>450</v>
       </c>
       <c r="N24" s="7">
-        <v>411698</v>
+        <v>484922</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5102,37 +5138,37 @@
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>29914</v>
+        <v>25016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
       </c>
       <c r="N25" s="7">
-        <v>29914</v>
+        <v>25016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5151,31 +5187,31 @@
         <v>329</v>
       </c>
       <c r="I26" s="7">
-        <v>230731</v>
+        <v>193019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>329</v>
       </c>
       <c r="N26" s="7">
-        <v>230731</v>
+        <v>193019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,31 +5236,31 @@
         <v>367</v>
       </c>
       <c r="I27" s="7">
-        <v>260645</v>
+        <v>218035</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>367</v>
       </c>
       <c r="N27" s="7">
-        <v>260645</v>
+        <v>218035</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,37 +5287,37 @@
         <v>404</v>
       </c>
       <c r="I28" s="7">
-        <v>265616</v>
+        <v>246124</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
       </c>
       <c r="N28" s="7">
-        <v>265616</v>
+        <v>246124</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5300,31 +5336,31 @@
         <v>2061</v>
       </c>
       <c r="I29" s="7">
-        <v>1316220</v>
+        <v>1335989</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>2061</v>
       </c>
       <c r="N29" s="7">
-        <v>1316220</v>
+        <v>1335989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,36 +5385,36 @@
         <v>2465</v>
       </c>
       <c r="I30" s="7">
-        <v>1581836</v>
+        <v>1582113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>2465</v>
       </c>
       <c r="N30" s="7">
-        <v>1581836</v>
+        <v>1582113</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
